--- a/Excel_Files/Stats_Populations/2_cm/673_nm_s.xlsx
+++ b/Excel_Files/Stats_Populations/2_cm/673_nm_s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Quantiles</t>
   </si>
@@ -61,139 +61,142 @@
     <t>Min_DR</t>
   </si>
   <si>
-    <t>1.93 E-4</t>
-  </si>
-  <si>
-    <t>8.47 E-5</t>
+    <t>8.18 E-4</t>
+  </si>
+  <si>
+    <t>5.29 E-4</t>
+  </si>
+  <si>
+    <t>3.28 E-4</t>
+  </si>
+  <si>
+    <t>3.44 E-5</t>
+  </si>
+  <si>
+    <t>2.37 E-5</t>
+  </si>
+  <si>
+    <t>1.38 E-5</t>
+  </si>
+  <si>
+    <t>1.07 E-3</t>
+  </si>
+  <si>
+    <t>9.31 E-4</t>
+  </si>
+  <si>
+    <t>6.07 E-4</t>
+  </si>
+  <si>
+    <t>4.46 E-5</t>
+  </si>
+  <si>
+    <t>2.03 E-5</t>
+  </si>
+  <si>
+    <t>9.01 E-6</t>
+  </si>
+  <si>
+    <t>8.06 E-4</t>
+  </si>
+  <si>
+    <t>6.59 E-4</t>
+  </si>
+  <si>
+    <t>4.98 E-4</t>
+  </si>
+  <si>
+    <t>3.54 E-5</t>
+  </si>
+  <si>
+    <t>1.81 E-5</t>
+  </si>
+  <si>
+    <t>7.24 E-6</t>
+  </si>
+  <si>
+    <t>7.91 E-4</t>
+  </si>
+  <si>
+    <t>4.03 E-4</t>
+  </si>
+  <si>
+    <t>2.10 E-4</t>
+  </si>
+  <si>
+    <t>1.83 E-5</t>
+  </si>
+  <si>
+    <t>8.67 E-6</t>
+  </si>
+  <si>
+    <t>2.86 E-6</t>
+  </si>
+  <si>
+    <t>5.94 E-4</t>
+  </si>
+  <si>
+    <t>3.95 E-4</t>
+  </si>
+  <si>
+    <t>2.09 E-4</t>
+  </si>
+  <si>
+    <t>1.23 E-5</t>
+  </si>
+  <si>
+    <t>6.36 E-6</t>
+  </si>
+  <si>
+    <t>4.23 E-6</t>
+  </si>
+  <si>
+    <t>6.80 E-4</t>
+  </si>
+  <si>
+    <t>4.01 E-4</t>
+  </si>
+  <si>
+    <t>2.20 E-5</t>
+  </si>
+  <si>
+    <t>9.14 E-6</t>
+  </si>
+  <si>
+    <t>1.34 E-3</t>
+  </si>
+  <si>
+    <t>6.57 E-4</t>
+  </si>
+  <si>
+    <t>5.38 E-4</t>
   </si>
   <si>
     <t>3.93 E-5</t>
   </si>
   <si>
-    <t>1.27 E-6</t>
-  </si>
-  <si>
-    <t>7.12 E-7</t>
-  </si>
-  <si>
-    <t>3.33 E-7</t>
-  </si>
-  <si>
-    <t>4.00 E-4</t>
-  </si>
-  <si>
-    <t>2.99 E-4</t>
-  </si>
-  <si>
-    <t>1.12 E-4</t>
-  </si>
-  <si>
-    <t>1.84 E-6</t>
-  </si>
-  <si>
-    <t>5.39 E-7</t>
-  </si>
-  <si>
-    <t>1.63 E-7</t>
-  </si>
-  <si>
-    <t>1.95 E-4</t>
-  </si>
-  <si>
-    <t>1.27 E-4</t>
-  </si>
-  <si>
-    <t>7.81 E-5</t>
-  </si>
-  <si>
-    <t>1.33 E-6</t>
-  </si>
-  <si>
-    <t>4.82 E-7</t>
-  </si>
-  <si>
-    <t>1.10 E-7</t>
-  </si>
-  <si>
-    <t>1.86 E-4</t>
-  </si>
-  <si>
-    <t>5.47 E-5</t>
-  </si>
-  <si>
-    <t>1.94 E-5</t>
-  </si>
-  <si>
-    <t>4.81 E-7</t>
-  </si>
-  <si>
-    <t>1.53 E-7</t>
-  </si>
-  <si>
-    <t>2.94 E-8</t>
-  </si>
-  <si>
-    <t>1.01 E-4</t>
-  </si>
-  <si>
-    <t>5.28 E-5</t>
-  </si>
-  <si>
-    <t>1.92 E-5</t>
-  </si>
-  <si>
-    <t>2.72 E-7</t>
-  </si>
-  <si>
-    <t>9.99 E-8</t>
-  </si>
-  <si>
-    <t>5.21 E-8</t>
-  </si>
-  <si>
-    <t>1.40 E-4</t>
-  </si>
-  <si>
-    <t>5.46 E-5</t>
-  </si>
-  <si>
-    <t>6.44 E-7</t>
-  </si>
-  <si>
-    <t>1.70 E-7</t>
-  </si>
-  <si>
-    <t>4.25 E-4</t>
-  </si>
-  <si>
-    <t>1.21 E-4</t>
-  </si>
-  <si>
-    <t>8.75 E-5</t>
-  </si>
-  <si>
-    <t>1.56 E-6</t>
-  </si>
-  <si>
-    <t>8.45 E-7</t>
-  </si>
-  <si>
-    <t>3.19 E-7</t>
-  </si>
-  <si>
-    <t>5.76 E-4</t>
-  </si>
-  <si>
-    <t>4.90 E-5</t>
-  </si>
-  <si>
-    <t>2.00 E-5</t>
-  </si>
-  <si>
-    <t>1.60 E-6</t>
-  </si>
-  <si>
-    <t>2.80 E-7</t>
+    <t>2.53 E-5</t>
+  </si>
+  <si>
+    <t>1.39 E-5</t>
+  </si>
+  <si>
+    <t>1.49 E-3</t>
+  </si>
+  <si>
+    <t>3.75 E-4</t>
+  </si>
+  <si>
+    <t>2.08 E-4</t>
+  </si>
+  <si>
+    <t>3.83 E-5</t>
+  </si>
+  <si>
+    <t>2.26 E-5</t>
+  </si>
+  <si>
+    <t>1.21 E-5</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
         <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -775,7 +778,7 @@
         <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
